--- a/data2/AKu-StuSam/translate.xlsx
+++ b/data2/AKu-StuSam/translate.xlsx
@@ -1920,7 +1920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2123,17 +2123,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>alte Stadt, Chotscho, Xinjiang, China</t>
+          <t>Anlage II, Höhle 4</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Anlage II, Höhle 4</t>
+          <t>Aomori (Präfektur)</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2143,7 +2143,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Aomori (Präfektur)</t>
+          <t>aus dem Schutt Ruine K, Khocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2153,7 +2153,7 @@
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>aus dem Schutt Ruine K, Khocho, Xinjiang, China</t>
+          <t>bei A und E, Kocho</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2163,47 +2163,47 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>bei A und E, Kocho</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Beta, Nord-Ostturm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Beta, Nord-Ostturm</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bezeklik / Bäzäklik / Murtuk I, Bozikeli</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bezeklik / Bäzäklik / Murtuk I, Bozikeli</t>
+          <t>Bezeklik / Bäzäklik/ Murtuk I, Bozikeli</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bezeklik / Bäzäklik/ Murtuk I, Bozikeli</t>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Bibliothek K , Kocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2211,9 +2211,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Bibliothek K , Kocho, Xinjiang, China</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Borazan</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2221,29 +2221,29 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Borazan</t>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Busan</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Changsha</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Changsha</t>
+          <t>Chans Palast</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2251,39 +2251,39 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Chans Palast</t>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>China</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>China (Land)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>615</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>China (Land)</t>
+          <t>Cholla</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2293,17 +2293,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Cholla</t>
+          <t>Chungcheongnam-do</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Chotscho</t>
+          <t>Cixian</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2313,17 +2313,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Chotscho, Xinjiang, China</t>
+          <t>Cizhou-Öfen</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Chungcheongnam-do</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2333,27 +2333,27 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Cixian</t>
+          <t>Dehua</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Cizhou-Öfen</t>
+          <t>Ding-Öfen</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Duandian-Öfen</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2363,7 +2363,7 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Dehua</t>
+          <t>Dämonentempel</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2373,7 +2373,7 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Ding-Öfen</t>
+          <t>Dämonentempel Nr. 8</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2383,7 +2383,7 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Duandian-Öfen</t>
+          <t>Ecktempel, mittlere Anlage</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2393,17 +2393,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Dämonentempel</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Dämonentempel 8</t>
+          <t>Figurentempel</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2413,7 +2413,7 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Dämonentempel Nr. 8</t>
+          <t>Freskentempel</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2423,7 +2423,7 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Ecktempel, mittlere Anlage</t>
+          <t>Freskentempel, Tumschuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2433,67 +2433,67 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Fresko-Tempel</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Figurentempel</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Freskentempel</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Freskentempel, Tumschuk, Xinjiang, China</t>
+          <t>Fukuoka</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Fresko-Tempel</t>
+          <t>Fukuoka (Präfektur)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Fukushima (Präfektur)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Gang neben Treppentempel</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2503,7 +2503,7 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
+          <t>Gansu oder Qinghai</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2513,17 +2513,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Fukuoka (Präfektur)</t>
+          <t>Gansu, Qinghai oder Ningxia</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Fukuoka-ken</t>
+          <t>Ganwa-Öfen</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2533,47 +2533,47 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Fukushima (Präfektur)</t>
+          <t>Ganzhou-Öfen</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Gang neben Treppentempel</t>
+          <t>Gifu</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Gansu oder Qinghai</t>
+          <t>Gongxian-Öfen</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Gansu, Qinghai oder Ningxia</t>
+          <t>graues Kloster, Yarkhoto, Xinjiang, China</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Ganwa-Öfen</t>
+          <t>große Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2583,7 +2583,7 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Ganzhou-Öfen</t>
+          <t>Große Schutthalde des Klosters, unweit Tempel 9</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2593,17 +2593,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>Größte Höhle</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Gongxian-Öfen</t>
+          <t>Größte Höhle, Kirisch, Xinjiang, China</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2613,17 +2613,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>graues Kloster, Yarkhoto, Xinjiang, China</t>
+          <t>Größte Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>große Höhle, Kizil, Xinjiang, China</t>
+          <t>Größter Tempel, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2633,7 +2633,7 @@
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Große Schutthalde des Klosters, unweit Tempel 9</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2643,7 +2643,7 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Größte Höhle</t>
+          <t>Hamgyeong</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2653,37 +2653,37 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Größte Höhle, Kirisch, Xinjiang, China</t>
+          <t>Haus im Zentrum der Stadt Länger, Xinjiang, China</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Größte Höhle, Kizil, Xinjiang, China</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Größter Tempel, Kizil, Xinjiang, China</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Henan oder Hebei</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2693,47 +2693,47 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Hamgyeong</t>
+          <t>Hiroshima</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Haus im Zentrum der Stadt Länger, Xinjiang, China</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hokkaidō</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Henan oder Hebei</t>
+          <t>Huangdao-Ware</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2743,7 +2743,7 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Hiroshima</t>
+          <t>Huangdao-Öfen</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2753,17 +2753,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Hokkaidô</t>
+          <t>Hyôgo</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Höchste Höhle</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2773,47 +2773,47 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Honshu</t>
+          <t>höchster Tempel, Toyok, Xinjiang, China</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Honshû</t>
+          <t>Höhle 10, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Honshū</t>
+          <t>Höhle 12</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Huangdao-Ware</t>
+          <t>Höhle 13</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Huangdao-Öfen</t>
+          <t>Höhle 13, Kumtura, Xinjiang, China</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2823,7 +2823,7 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Hyôgo</t>
+          <t>Höhle 23, Kumtura, Xinjiang, China</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2833,17 +2833,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Höchste Höhle</t>
+          <t>Höhle der Priesterweihe</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>höchster Tempel, Toyok, Xinjiang, China</t>
+          <t>Höhle des Zebuwagens, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2853,7 +2853,7 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Höhle 10, Kizil, Xinjiang, China</t>
+          <t>Höhle H</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2863,27 +2863,27 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Höhle 12</t>
+          <t>Höhle oberhalb Kassettenhöhle</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Höhle 13</t>
+          <t>Höhle unterhalb der Schwertträgerhöhle H.</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Höhle 13, Kumtura, Xinjiang, China</t>
+          <t>Höhle vom Ende der Anlage</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2893,7 +2893,7 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Höhle 23, Kumtura, Xinjiang, China</t>
+          <t>I-hsing</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2903,27 +2903,27 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Höhle der Priesterweihe</t>
+          <t>Ibaraki (Präfektur)</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>Höhle des Zebuwagens, Kizil, Xinjiang, China</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Iliköl / Ili Köl</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Höhle H</t>
+          <t>Innere Mongolei</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2933,77 +2933,77 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Höhle oberhalb Kassettenhöhle</t>
+          <t>Ishikawa</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Höhle unterhalb der Schwertträgerhöhle H.</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Höhle vom Ende der Anlage</t>
+          <t>Jian-Öfen</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>I-hsing</t>
+          <t>Jiangsu</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Ibaraki (Präfektur)</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Iliköl / Ili Köl</t>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Jingdezhen</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Innere Mongolei</t>
+          <t>Jingdezhen-Öfen</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Ishikawa</t>
+          <t>Jizhou-Öfen</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3013,17 +3013,17 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jun-Öfen</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Jian-Öfen</t>
+          <t>Kagoshima</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3033,77 +3033,77 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Jiangsu</t>
+          <t>Kaiserl. Manufaktur in Jingdezhen</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Kanagawa</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Jingdezhen</t>
+          <t>Kanal südlich von Ruine Alpha</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Jingdezhen-Öfen</t>
+          <t>Keramische Werkstatt Margaretenhöhe, Essen</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Jizhou-Öfen</t>
+          <t>Keryong-san?</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Jun-Öfen</t>
+          <t>Khocho K, Xinjiang, China</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Kagoshima</t>
+          <t>Khocho, Höhle Alpha und B</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Kaiserl. Manufaktur in Jingdezhen</t>
+          <t>Kiangsu</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3113,7 +3113,7 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Kanagawa</t>
+          <t>Kindik, Turfan-Urumci, Xinjiang, China</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3121,39 +3121,39 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="inlineStr">
-        <is>
-          <t>Kanal südlich von Ruine Alpha</t>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Keramische Werkstatt Margaretenhöhe, Essen</t>
+          <t>kleine Stupa an westlicher Ruine</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Keryong-san?</t>
+          <t>Kleiner Stupa-Tempel</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>Khocho</t>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Kocho</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3161,19 +3161,19 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>Khocho K, Xinjiang, China</t>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Khocho, Höhle Alpha und B</t>
+          <t>Kocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3183,27 +3183,27 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Khocho, Xinjiang, China</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Khotscho, Xinjiang, China</t>
+          <t>Korea (?)</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="inlineStr">
-        <is>
-          <t>Kiangsu</t>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Kucha / Kuqa Kuche / Qiuci</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3211,39 +3211,39 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>Kindik, Turfan-Urumci, Xinjiang, China</t>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Kum Arik / Qum Ariq</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>Kizil, Xinjiang, China</t>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Kumtura / Qumtura / Kumutula</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>kleine Stupa an westlicher Ruine</t>
+          <t>Kumtura, Xinjiang, China</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3251,59 +3251,59 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>kleiner Stupa</t>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Kyōto</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>Kleiner Stupa-Tempel</t>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Köl</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja/ Karachodscha / Gaochang</t>
+          <t>letzte Anlage</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Kocho /Khocho/ Chotscho, Karakhoja/ Karachodscha, Gaochang</t>
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>letzte Höhle der Anlage II</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Kocho, Xinjiang, China</t>
+          <t>letzte Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3313,17 +3313,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>Letzte Höhle, letzte Anlage</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Korea (?)</t>
+          <t>letzte Höhle, letzte Anlage in  Kizil</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3331,9 +3331,9 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Kucha / Kuqa Kuche/ Qiuci</t>
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>letzter Tempel</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3343,7 +3343,7 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Kum Ariq</t>
+          <t>letzter Tempel, letzte Anlage, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3353,27 +3353,27 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Liaoning oder Innere Mongolei</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Kumtura / Qumtura / Kumutula</t>
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Lingwu-Öfen</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="inlineStr">
-        <is>
-          <t>Kumtura, Xinjiang, China</t>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Linru (?)</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3381,49 +3381,49 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Kyôto</t>
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Longquan-Öfen</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Kyûshû</t>
+          <t>Längar</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Köl</t>
+          <t>Mashiko</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Letzte Anlage</t>
+          <t>Mie</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>letzte Anlage, Kizil, Xinjiang, China</t>
+          <t>Ming Oi</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3431,39 +3431,39 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
-        <is>
-          <t>letzte Höhle der Anlage II</t>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Murtuk / Murtuq</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
-        <is>
-          <t>letzte Höhle, Kizil, Xinjiang, China</t>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Letzte Höhle, letzte Anlage</t>
+          <t>Naksatrahöhle</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>letzte Höhle, letzte Anlage in  Kizil</t>
+          <t>Nara</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3473,27 +3473,27 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>letzter Tempel</t>
+          <t>Niigata</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>letzter Tempel, letzte Anlage, Kizil, Xinjiang, China</t>
+          <t>Ningxia</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Liaoning oder Innere Mongolei</t>
+          <t>Nord-Zhejiang</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3503,17 +3503,17 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Lingwu-Öfen</t>
+          <t>Nordchina</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" ht="30" customHeight="1">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>Linru (Schätzung)</t>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>nordwestliche Ruine</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3523,47 +3523,47 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Longquan-Öfen</t>
+          <t>Nr. 7</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Längar</t>
+          <t>Nördliches China</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" ht="30" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Mashiko</t>
+          <t>Oita</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>Mie</t>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Ming Oi</t>
+          <t>Ostruine</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3571,69 +3571,69 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Murtuk / Murtuq</t>
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>Ostsiedlung</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Nagasaki</t>
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>Pfauenhöhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Naksatrahöhle</t>
+          <t>Pfauenhöhle, Nr. 76</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Nara</t>
+          <t>Priesterweihehöhle</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Niigata</t>
+          <t>Priesterweihetempel</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Ningxia</t>
+          <t>Pusan</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Nord-Zhejiang</t>
+          <t>Ritterhöhle</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3643,17 +3643,17 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Nordchina</t>
+          <t>Rotkuppelraum</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Nr. 7</t>
+          <t>Rotkuppelraum, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3663,7 +3663,7 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>NW-Ruine</t>
+          <t>Ruine</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3673,37 +3673,37 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Nördliches China</t>
+          <t>Ruine  Alpha, Raum oberhalb der SW-Treppe</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Oita</t>
+          <t>Ruine Alpha</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Okayama</t>
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>Ruine Alpha, Khocho</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Ostruine</t>
+          <t>Ruine Alpha, Khocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3713,7 +3713,7 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Ostsiedlung</t>
+          <t>Ruine Alpha, Kocho</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3723,57 +3723,57 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Pfauenhöhle</t>
+          <t>Ruine Alpha, oberhalb der SW-Treppe</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Pfauenhöhle (Höhle 76)</t>
+          <t>Ruine Alpha, Vorhalle E</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Pfauenhöhle, Kizil, Xinjiang, China</t>
+          <t>Ruine Beta</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Pfauenhöhle, Nr. 76</t>
+          <t>Ruine D</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Priesterweihehöhle</t>
+          <t>Ruine der Nordseite d. Weges</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Priesterweihetempel</t>
+          <t>Ruine H'</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3783,17 +3783,17 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Pusan</t>
+          <t>Ruine K</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Ritterhöhle</t>
+          <t>Ruine Q</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3803,7 +3803,7 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Rotkuppelraum</t>
+          <t>Ruine v I</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3813,7 +3813,7 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Rotkuppelraum, Kizil, Xinjiang, China</t>
+          <t>Ruine vI</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3823,7 +3823,7 @@
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Ruine</t>
+          <t>Ruine X</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3833,27 +3833,27 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Ruine  Alpha, Raum oberhalb der SW-Treppe</t>
+          <t>Ruine β</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Ruine Alpha</t>
+          <t>Ruine β, Kocho, Raum auf dem Turm gegenüber alpha</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Ruine Alpha, Khocho</t>
+          <t>Ruine β, Kocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -3863,7 +3863,7 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Ruine Alpha, Khocho, Xinjiang, China</t>
+          <t>Ruinen eines großen Klosters</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3873,7 +3873,7 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Ruine Alpha, Kocho</t>
+          <t>Schacht des Stupa</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3883,7 +3883,7 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Ruine Alpha, oberhalb der SW-Treppe</t>
+          <t>Schlucht Tempel 10, Sängim, Xinjiang, China</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3891,39 +3891,39 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="inlineStr">
-        <is>
-          <t>Ruine Alpha, Vorhalle E</t>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sengim / Sängim / Shengjinxiang</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Ruine Beta</t>
+          <t>Sengim Agiz</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Ruine D</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Ruine der Nordseite d. Weges</t>
+          <t>Shaanxi oder Henan</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3933,77 +3933,77 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Ruine H'</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Ruine K</t>
+          <t>Shandong oder Henan</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Ruine K, Chotscho, Xinjiang, China</t>
+          <t>Shikoku</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Ruine Q</t>
+          <t>Shimane</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Ruine Q, Kocho</t>
+          <t>Shizuoka</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="inlineStr">
-        <is>
-          <t>Ruine Q, Kocho, Xinjiang, China</t>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Ruine v I</t>
+          <t>Shorchuk Stadt, Xinjiang, China</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Ruine vI</t>
+          <t>Shorchuk, Nakshatra Höhle, Xinjiang, China</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4013,7 +4013,7 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Ruine X</t>
+          <t>Shortshuk, Stadt zwischen Tempel 12 und 25, Xinjiang, China</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4023,17 +4023,17 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Ruine β</t>
+          <t>Shortshuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Ruine β, Kocho, Raum auf dem Turm gegenüber alpha</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4043,27 +4043,27 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Ruine β, Kocho, Xinjiang, China</t>
+          <t>Stadt auf dem Yar, Xinjiang, China</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Ruinen eines großen Klosters</t>
+          <t>Statuenhöhle</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>S.W. Stupa</t>
+          <t>Statuenhöhle (Höhle 77)</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4073,7 +4073,7 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Schacht des großen Stupas bei Kum Ariq</t>
+          <t>Stupa nördlich von Ruine v</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4083,17 +4083,17 @@
     <row r="214" ht="30" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>Schacht des Stupa</t>
+          <t>Stupentempel</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Schlucht Tempel 10, Sängim, Xinjiang, China</t>
+          <t>Stupentempel D</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4103,7 +4103,7 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>Sengim</t>
+          <t>Stupentempel T</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4111,19 +4111,19 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Sengim / Sängim / Shengjinxiang</t>
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>Subashi</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" ht="30" customHeight="1">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>Sengim Agiz</t>
+          <t>Sängim A</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4133,37 +4133,37 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Sängim Agiz</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
-        <is>
-          <t>Shaanxi oder Henan</t>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Südliches China</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Südseite des goßen Tempels, Ostanlage, Tumschuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="inlineStr">
-        <is>
-          <t>Shandong oder Henan</t>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>südwestliche Stupa</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4173,47 +4173,47 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Shikoku</t>
+          <t>Tempel 1</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>Shimane</t>
+          <t>Tempel 10</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Shizuoka</t>
+          <t>Tempel 12 und 25, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>Tempel 12, 15</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>Shorchuk Stadt, Xinjiang, China</t>
+          <t>Tempel 12, 15, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4223,17 +4223,17 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>Shorchuk, Nakshatra Höhle, Xinjiang, China</t>
+          <t>Tempel 12, 15, Shortshuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Shortshuk, Stadt zwischen Tempel 12 und 25, Xinjiang, China</t>
+          <t>Tempel 12, Kumtura, Xinjiang, China</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4243,17 +4243,17 @@
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>Shortshuk, Xinjiang, China</t>
+          <t>Tempel 15 und 25, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Tempel 7</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -4263,37 +4263,37 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>Stadt auf dem Yar, Xinjiang, China</t>
+          <t>Tempel 7, Sängim, Xinjiang, China</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>Statuenhöhle</t>
+          <t>Tempel 9</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>Statuenhöhle (Höhle 77)</t>
+          <t>Tempel auf Insel</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" ht="30" customHeight="1">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Stupa nördlich von Ruine v</t>
+          <t>Tempel auf Westseite, Tumshuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4303,7 +4303,7 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>Stupa, Tumschuk</t>
+          <t>Tempel B, Khocho</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -4313,7 +4313,7 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Stupentempel</t>
+          <t>Tempel der Behelmten, Kizil, Xinjiang, China</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4323,7 +4323,7 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>Stupentempel D</t>
+          <t>Tempel des Lokapalas</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4333,27 +4333,27 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Stupentempel T</t>
+          <t>Tempel H</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" ht="30" customHeight="1">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>Subashi</t>
+          <t>Tempel im Süden der Stadt</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Sängim A</t>
+          <t>Tempel in der Ebene, Kumtura, Xinjiang, China</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -4363,7 +4363,7 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>Sängim Agiz</t>
+          <t>Tempel Lokapalas</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4371,19 +4371,19 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Südliches China</t>
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>Tempel Mü, Khocho, Xinjiang, China</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>Südseite des goßen Tempels, Ostanlage, Tumschuk, Xinjiang, China</t>
+          <t>Tempel neben Tura</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4393,17 +4393,17 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Südwest-Stupa, Chotscho, Xinjiang, China</t>
+          <t>Tempel oberhalb der Kassettenhöhle</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>Tempel 1</t>
+          <t>Tempel Q</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -4413,7 +4413,7 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Tempel 10</t>
+          <t>Tempelchen bei Tura</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4423,7 +4423,7 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>Tempel 12 und 25, Shorchuk, Xinjiang, China</t>
+          <t>Tempelchen bei Tura, Tschikkan Köl, Xinxiang, China</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4433,47 +4433,47 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Tempel 12, 15</t>
+          <t>Terasse, Bäzäklik, Murtuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t>Tempel 12, 15, Shorchuk, Xinjiang, China</t>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tochigi (Präfektur)</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" ht="30" customHeight="1">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Tempel 12, 15, Shortshuk, Xinjiang, China</t>
+          <t>Tongchuan (Kreis)</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>Tempel 12, Kumtura, Xinjiang, China</t>
+          <t>Tongchuan-Öfen</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Tempel 15 und 25, Shorchuk, Xinjiang, China</t>
+          <t>Tongguan-Öfen</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4481,9 +4481,9 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t>Tempel 7</t>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Tumshuk  / Tumschuk / Tumushuke</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4491,19 +4491,19 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="inlineStr">
-        <is>
-          <t>Tempel 7, Sängim, Xinjiang, China</t>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" ht="30" customHeight="1">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>Tempel 9</t>
+          <t>Unfallhöhle, Nr. 10</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -4513,17 +4513,17 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Tempel auf Insel</t>
+          <t>Untergeschoss, N. O. - Turm Beta</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>Tempel auf Westseite, Tumshuk, Xinjiang, China</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4533,27 +4533,27 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>Tempel B, Khocho</t>
+          <t>Verbrannter Tempel</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>Tempel der Behelmten, Kizil, Xinjiang, China</t>
+          <t>W-ruine</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>Tempel des Lokapalas</t>
+          <t>W. Ruine</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -4563,37 +4563,37 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>Tempel H</t>
+          <t>Westanlage, Tumshuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>Tempel im Süden der Stadt</t>
+          <t>Westklippe</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>Tempel in der Ebene, Kumtura, Xinjiang, China</t>
+          <t>Westseite der Westklippe</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>Tempel Lokapalas</t>
+          <t>Xianjing</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4603,7 +4603,7 @@
     <row r="266" ht="30" customHeight="1">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>Tempel Mü, Khocho, Xinjiang, China</t>
+          <t>Xicun-Öfen</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -4613,7 +4613,7 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>Tempel neben Tura</t>
+          <t>Xinjang</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -4623,67 +4623,67 @@
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>Tempel oberhalb der Kassettenhöhle</t>
+          <t>Xinjian</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="inlineStr">
-        <is>
-          <t>Tempel Q</t>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Xinjiang / Sinkiang</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>Tempelchen bei Tura</t>
+          <t>Yamaguchi</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" ht="30" customHeight="1">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>Tempelchen bei Tura, Tschikkan Köl, Xinxiang, China</t>
+          <t>Yaozhou-Öfen</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>Terasse, Bäzäklik, Murtuk, Xinjiang, China</t>
+          <t>Yarkhoto</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Tochigi (Präfektur)</t>
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>Yarkhoto, Xinjiang, China</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>Tongchuan (Kreis)</t>
+          <t>Yarkoto</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4693,17 +4693,17 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>Tongchuan-Öfen</t>
+          <t>Yixing</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>Tongguan-Öfen</t>
+          <t>Yu-xian</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -4711,9 +4711,9 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Tumshuk / Tumschuk / Tumushuke</t>
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>Yue-Öfen</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4723,7 +4723,7 @@
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>Turm IV, Chotscho, Xinjiang, China</t>
+          <t>Zejiang</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4733,323 +4733,48 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>Turm vI, Chotscho, Xinjiang, China</t>
+          <t>Zhejiang</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" ht="30" customHeight="1">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>Unfallhöhle, Nr. 10</t>
+          <t>Zhejiang oder Jiangxi</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>Untergeschoss, N. O. - Turm Beta</t>
+          <t>Zwischen Tempel 12 und 25</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>zwischen Tempel 12 und 25, Shortshuk, Xinjiang, China</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="3" t="inlineStr">
-        <is>
-          <t>Verbrannter Tempel</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="3" t="inlineStr">
-        <is>
-          <t>W-ruine</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" ht="30" customHeight="1">
-      <c r="A285" s="3" t="inlineStr">
-        <is>
-          <t>W. Ruine</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="3" t="inlineStr">
-        <is>
-          <t>Westanlage, Tumshuk, Xinjiang, China</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="3" t="inlineStr">
-        <is>
-          <t>Westklippe</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="3" t="inlineStr">
-        <is>
-          <t>Westklippe, Westruine, Tumshuk, Xinjiang, China</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" ht="30" customHeight="1">
-      <c r="A289" s="3" t="inlineStr">
-        <is>
-          <t>Westseite der Westklippe</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="3" t="inlineStr">
-        <is>
-          <t>Xianjing</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="3" t="inlineStr">
-        <is>
-          <t>Xicun-Öfen</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="3" t="inlineStr">
-        <is>
-          <t>Xinjang</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="3" t="inlineStr">
-        <is>
-          <t>Xinjian</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" ht="30" customHeight="1">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Xinjiang / Sinkiang</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="3" t="inlineStr">
-        <is>
-          <t>Xinjiang, China</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="3" t="inlineStr">
-        <is>
-          <t>Xinjinang</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="3" t="inlineStr">
-        <is>
-          <t>Xinjinang, China</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="3" t="inlineStr">
-        <is>
-          <t>Yamaguchi</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="3" t="inlineStr">
-        <is>
-          <t>Yaozhou-Öfen</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="3" t="inlineStr">
-        <is>
-          <t>Yarkhoto</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="3" t="inlineStr">
-        <is>
-          <t>Yarkhoto, Xinjiang, China</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="3" t="inlineStr">
-        <is>
-          <t>Yarkoto</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" ht="30" customHeight="1">
-      <c r="A303" s="3" t="inlineStr">
-        <is>
-          <t>Yixing</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="3" t="inlineStr">
-        <is>
-          <t>Yu-xian</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="3" t="inlineStr">
-        <is>
-          <t>Yue-Öfen</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="3" t="inlineStr">
-        <is>
-          <t>Zejiang</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="3" t="inlineStr">
-        <is>
-          <t>Zhejiang</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="308" ht="30" customHeight="1">
-      <c r="A308" s="3" t="inlineStr">
-        <is>
-          <t>Zhejiang oder Jiangxi</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="3" t="inlineStr">
-        <is>
-          <t>Zwischen Tempel 12 und 25</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="3" t="inlineStr">
-        <is>
-          <t>zwischen Tempel 12 und 25, Shortshuk, Xinjiang, China</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
         <v>7</v>
       </c>
     </row>
+    <row r="285" ht="30" customHeight="1"/>
+    <row r="289" ht="30" customHeight="1"/>
+    <row r="294" ht="30" customHeight="1"/>
+    <row r="303" ht="30" customHeight="1"/>
+    <row r="308" ht="30" customHeight="1"/>
     <row r="325" ht="30" customHeight="1"/>
     <row r="330" ht="30" customHeight="1"/>
   </sheetData>
